--- a/고용노동부 출결프로그램 요구사항 분석서.xlsx
+++ b/고용노동부 출결프로그램 요구사항 분석서.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhWfNOWIHrtETglbeDcfyd22njp2A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhwd7bcJNwmVp/4RSzHwTwIL/sEQA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>고용노동부 출결프로그램 요구사항 분석서</t>
   </si>
@@ -39,7 +39,7 @@
     <t>비고</t>
   </si>
   <si>
-    <t>로그인</t>
+    <t>메인화면</t>
   </si>
   <si>
     <t>회원 정보 DB 조회를 통한 로그인</t>
@@ -63,10 +63,8 @@
     <t>교사와 학생 여부에 따라 각각 다른 페이지로 이동</t>
   </si>
   <si>
-    <t>학생 메인</t>
-  </si>
-  <si>
-    <t>학생이 사용 가능한 출결앱 기능</t>
+    <t>학생 메인 페이지
+학생이 사용 가능한 출결앱 기능</t>
   </si>
   <si>
     <t>출석 가능
@@ -96,19 +94,11 @@
     <t>다른 학생들의 일정을 확인 가능(공유달력)</t>
   </si>
   <si>
-    <t>교사와 일대일 실시간 채팅 기능</t>
-  </si>
-  <si>
-    <t>채팅 메세지가 와있을 시 알림 출력</t>
-  </si>
-  <si>
     <t>고용노동부 메인 페이지는 직접 구현하지 않고 링크를 통해 연결</t>
   </si>
   <si>
-    <t>교사 메인</t>
-  </si>
-  <si>
-    <t>교사가 사용 가능한 출결앱 기능</t>
+    <t>교사 메인 페이지
+교사가 사용 가능한 출결앱 기능</t>
   </si>
   <si>
     <t>교사의 출결앱 기능을 상상하여 구현함</t>
@@ -127,6 +117,21 @@
   </si>
   <si>
     <t>고용노동부 메인 페이지 연결</t>
+  </si>
+  <si>
+    <t>새 창</t>
+  </si>
+  <si>
+    <t>교사와 학생간 일대일 채팅</t>
+  </si>
+  <si>
+    <t>교사와 일대일 실시간 채팅 기능</t>
+  </si>
+  <si>
+    <t>채팅 메세지가 와있을 시 알림 출력</t>
+  </si>
+  <si>
+    <t>채팅 로그 남음(DB저장)</t>
   </si>
 </sst>
 </file>
@@ -331,6 +336,17 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -384,17 +400,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -424,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -471,31 +476,31 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -505,13 +510,22 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -734,7 +748,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="4.38"/>
     <col customWidth="1" min="2" max="2" width="6.38"/>
-    <col customWidth="1" min="3" max="3" width="8.88"/>
+    <col customWidth="1" min="3" max="3" width="14.38"/>
     <col customWidth="1" min="4" max="4" width="28.13"/>
     <col customWidth="1" min="5" max="5" width="35.25"/>
     <col customWidth="1" min="6" max="6" width="48.0"/>
@@ -861,33 +875,33 @@
       <c r="A11" s="1"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="21">
+      <c r="B12" s="22">
         <v>2.0</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -897,8 +911,8 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="25" t="s">
-        <v>18</v>
+      <c r="F13" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="1"/>
@@ -910,8 +924,8 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="25" t="s">
-        <v>19</v>
+      <c r="F14" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="1"/>
@@ -923,8 +937,8 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="25" t="s">
-        <v>20</v>
+      <c r="F15" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="1"/>
@@ -936,8 +950,8 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="25" t="s">
-        <v>21</v>
+      <c r="F16" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="1"/>
@@ -949,8 +963,8 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="25" t="s">
-        <v>22</v>
+      <c r="F17" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="1"/>
@@ -962,8 +976,8 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="25" t="s">
-        <v>23</v>
+      <c r="F18" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="1"/>
@@ -971,61 +985,61 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="15"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="F20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="25"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="20"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -1035,8 +1049,8 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="30" t="s">
-        <v>31</v>
+      <c r="F23" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="1"/>
@@ -1044,73 +1058,87 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="15"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="34"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="32" t="s">
+      <c r="B25" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="33" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="34"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="34"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -1781,7 +1809,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="38"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
@@ -1792,7 +1820,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="38"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
@@ -1803,7 +1831,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="35"/>
+      <c r="G92" s="38"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
@@ -1814,7 +1842,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="35"/>
+      <c r="G93" s="38"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
@@ -1825,7 +1853,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="35"/>
+      <c r="G94" s="38"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
@@ -1836,7 +1864,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="35"/>
+      <c r="G95" s="38"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
@@ -1847,7 +1875,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="35"/>
+      <c r="G96" s="38"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
@@ -1858,7 +1886,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="35"/>
+      <c r="G97" s="38"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
@@ -1869,7 +1897,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="35"/>
+      <c r="G98" s="38"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
@@ -1880,7 +1908,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="35"/>
+      <c r="G99" s="38"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
@@ -1891,7 +1919,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="35"/>
+      <c r="G100" s="38"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
@@ -1902,7 +1930,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="35"/>
+      <c r="G101" s="38"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
@@ -1913,7 +1941,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="35"/>
+      <c r="G102" s="38"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
@@ -1924,7 +1952,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="35"/>
+      <c r="G103" s="38"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
@@ -1935,7 +1963,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="35"/>
+      <c r="G104" s="38"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
@@ -1946,7 +1974,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="35"/>
+      <c r="G105" s="38"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
@@ -1957,7 +1985,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="35"/>
+      <c r="G106" s="38"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
@@ -1968,7 +1996,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="35"/>
+      <c r="G107" s="38"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
@@ -1979,7 +2007,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="35"/>
+      <c r="G108" s="38"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
@@ -1990,7 +2018,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="35"/>
+      <c r="G109" s="38"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
@@ -2001,7 +2029,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="35"/>
+      <c r="G110" s="38"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
@@ -2012,7 +2040,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="35"/>
+      <c r="G111" s="38"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
@@ -2023,7 +2051,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="35"/>
+      <c r="G112" s="38"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
@@ -2034,7 +2062,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="35"/>
+      <c r="G113" s="38"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
@@ -2045,7 +2073,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="35"/>
+      <c r="G114" s="38"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
@@ -2056,7 +2084,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="35"/>
+      <c r="G115" s="38"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
@@ -2067,7 +2095,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="35"/>
+      <c r="G116" s="38"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
@@ -2078,7 +2106,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="35"/>
+      <c r="G117" s="38"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
@@ -2089,7 +2117,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="35"/>
+      <c r="G118" s="38"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
@@ -2100,7 +2128,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="35"/>
+      <c r="G119" s="38"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
@@ -2111,7 +2139,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="35"/>
+      <c r="G120" s="38"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
@@ -2122,7 +2150,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="35"/>
+      <c r="G121" s="38"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
@@ -2133,7 +2161,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="35"/>
+      <c r="G122" s="38"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
@@ -2144,7 +2172,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="35"/>
+      <c r="G123" s="38"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
@@ -2155,7 +2183,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="35"/>
+      <c r="G124" s="38"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
@@ -2166,7 +2194,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="35"/>
+      <c r="G125" s="38"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
@@ -2177,7 +2205,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="35"/>
+      <c r="G126" s="38"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
@@ -2188,7 +2216,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="35"/>
+      <c r="G127" s="38"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
@@ -2199,7 +2227,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="35"/>
+      <c r="G128" s="38"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
@@ -2210,7 +2238,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="35"/>
+      <c r="G129" s="38"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
@@ -2221,7 +2249,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="35"/>
+      <c r="G130" s="38"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
@@ -2232,7 +2260,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="35"/>
+      <c r="G131" s="38"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
@@ -2243,7 +2271,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="35"/>
+      <c r="G132" s="38"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
@@ -2254,7 +2282,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="35"/>
+      <c r="G133" s="38"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
@@ -2265,7 +2293,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="35"/>
+      <c r="G134" s="38"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
@@ -2276,7 +2304,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="35"/>
+      <c r="G135" s="38"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
@@ -2287,7 +2315,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="35"/>
+      <c r="G136" s="38"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
@@ -2298,7 +2326,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="35"/>
+      <c r="G137" s="38"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
@@ -2309,7 +2337,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="35"/>
+      <c r="G138" s="38"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
@@ -2320,7 +2348,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="35"/>
+      <c r="G139" s="38"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
@@ -2331,7 +2359,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="35"/>
+      <c r="G140" s="38"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
@@ -2342,7 +2370,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="35"/>
+      <c r="G141" s="38"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
@@ -2353,7 +2381,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="35"/>
+      <c r="G142" s="38"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
@@ -2364,7 +2392,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="35"/>
+      <c r="G143" s="38"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
@@ -2375,7 +2403,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="35"/>
+      <c r="G144" s="38"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
@@ -2386,7 +2414,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="35"/>
+      <c r="G145" s="38"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
@@ -2397,7 +2425,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="35"/>
+      <c r="G146" s="38"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
@@ -2408,7 +2436,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="35"/>
+      <c r="G147" s="38"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
@@ -2419,7 +2447,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="35"/>
+      <c r="G148" s="38"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
@@ -2430,7 +2458,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="35"/>
+      <c r="G149" s="38"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
@@ -2441,7 +2469,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="35"/>
+      <c r="G150" s="38"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
@@ -2452,7 +2480,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="35"/>
+      <c r="G151" s="38"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
@@ -2463,7 +2491,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="35"/>
+      <c r="G152" s="38"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
@@ -2474,7 +2502,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="35"/>
+      <c r="G153" s="38"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
@@ -2485,7 +2513,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="35"/>
+      <c r="G154" s="38"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
@@ -2496,7 +2524,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="35"/>
+      <c r="G155" s="38"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
@@ -2507,7 +2535,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="35"/>
+      <c r="G156" s="38"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
@@ -2518,7 +2546,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="35"/>
+      <c r="G157" s="38"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
@@ -2529,7 +2557,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="35"/>
+      <c r="G158" s="38"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
@@ -2540,7 +2568,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="35"/>
+      <c r="G159" s="38"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
@@ -2551,7 +2579,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="35"/>
+      <c r="G160" s="38"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
@@ -2562,7 +2590,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="35"/>
+      <c r="G161" s="38"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
@@ -2573,7 +2601,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="35"/>
+      <c r="G162" s="38"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
@@ -2584,7 +2612,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="35"/>
+      <c r="G163" s="38"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
@@ -2595,7 +2623,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="35"/>
+      <c r="G164" s="38"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
@@ -2606,7 +2634,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="35"/>
+      <c r="G165" s="38"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
@@ -2617,7 +2645,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="35"/>
+      <c r="G166" s="38"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
@@ -2628,7 +2656,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="35"/>
+      <c r="G167" s="38"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
@@ -2639,7 +2667,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="35"/>
+      <c r="G168" s="38"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
@@ -2650,7 +2678,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="35"/>
+      <c r="G169" s="38"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
@@ -2661,7 +2689,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="35"/>
+      <c r="G170" s="38"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
@@ -2672,7 +2700,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="35"/>
+      <c r="G171" s="38"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
@@ -2683,7 +2711,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="35"/>
+      <c r="G172" s="38"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
@@ -2694,7 +2722,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="35"/>
+      <c r="G173" s="38"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
@@ -2705,7 +2733,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="35"/>
+      <c r="G174" s="38"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
@@ -2716,32 +2744,12 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="35"/>
+      <c r="G175" s="38"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-    </row>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
     <row r="178" ht="15.75" customHeight="1"/>
     <row r="179" ht="15.75" customHeight="1"/>
     <row r="180" ht="15.75" customHeight="1"/>
@@ -3491,26 +3499,29 @@
     <row r="924" ht="15.75" customHeight="1"/>
     <row r="925" ht="15.75" customHeight="1"/>
     <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="21">
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="G12:G21"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
